--- a/REGULAR/OJT/NEW DONE/MABUTI, ANA MARIE.xlsx
+++ b/REGULAR/OJT/NEW DONE/MABUTI, ANA MARIE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6A2993-FAA0-4FEB-B640-3BF634415424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ECA2C2-4FAF-4429-A92E-9050A5AC8E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -1613,6 +1613,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1645,9 +1648,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1909,7 +1909,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2258,8 +2258,8 @@
   <dimension ref="A2:K575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <pane ySplit="3288" topLeftCell="A71" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <pane ySplit="3288" topLeftCell="A546" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C556" sqref="C556:C557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2281,66 +2281,66 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53" t="s">
         <v>394</v>
       </c>
-      <c r="C3" s="52"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="59">
         <v>35953</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="54" t="s">
         <v>395</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -2366,18 +2366,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -2424,7 +2424,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>65.986000000000104</v>
+        <v>67.236000000000104</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2434,7 +2434,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>59.79200000000003</v>
+        <v>61.04200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14894,13 +14894,15 @@
         <v>45047</v>
       </c>
       <c r="B557" s="20"/>
-      <c r="C557" s="13"/>
+      <c r="C557" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D557" s="39"/>
       <c r="E557" s="9"/>
       <c r="F557" s="20"/>
-      <c r="G557" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G557" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H557" s="39"/>
       <c r="I557" s="9"/>
@@ -14968,14 +14970,14 @@
       <c r="B561" s="15"/>
       <c r="C561" s="41"/>
       <c r="D561" s="42"/>
-      <c r="E561" s="62"/>
+      <c r="E561" s="51"/>
       <c r="F561" s="15"/>
       <c r="G561" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H561" s="42"/>
-      <c r="I561" s="62"/>
+      <c r="I561" s="51"/>
       <c r="J561" s="12"/>
       <c r="K561" s="15"/>
     </row>
@@ -15294,17 +15296,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -15381,12 +15383,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="45"/>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/REGULAR/OJT/NEW DONE/MABUTI, ANA MARIE.xlsx
+++ b/REGULAR/OJT/NEW DONE/MABUTI, ANA MARIE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ECA2C2-4FAF-4429-A92E-9050A5AC8E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A71579-8906-49DB-BDB5-15718DE8F2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="396">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2258,8 +2258,8 @@
   <dimension ref="A2:K575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <pane ySplit="3288" topLeftCell="A546" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="C556" sqref="C556:C557"/>
+      <pane ySplit="3288" topLeftCell="A549" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B559" sqref="B559"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2424,7 +2424,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>67.236000000000104</v>
+        <v>68.486000000000104</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2434,7 +2434,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>61.04200000000003</v>
+        <v>62.29200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14913,19 +14913,25 @@
       <c r="A558" s="40">
         <v>45078</v>
       </c>
-      <c r="B558" s="20"/>
-      <c r="C558" s="13"/>
+      <c r="B558" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C558" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D558" s="39"/>
       <c r="E558" s="9"/>
       <c r="F558" s="20"/>
-      <c r="G558" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G558" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H558" s="39"/>
       <c r="I558" s="9"/>
       <c r="J558" s="11"/>
-      <c r="K558" s="20"/>
+      <c r="K558" s="48">
+        <v>45103</v>
+      </c>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
